--- a/Ligas/Liga_china_2025.xlsx
+++ b/Ligas/Liga_china_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:S137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9106,6 +9106,574 @@
         </is>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>SHANGHAI SIPG</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1341028</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1</v>
+      </c>
+      <c r="P130" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Qingdao Youth Island</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1341027</v>
+      </c>
+      <c r="G131" t="n">
+        <v>11</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1</v>
+      </c>
+      <c r="P131" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Chengdu Better City</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1341029</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>2</v>
+      </c>
+      <c r="P132" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Hangzhou Greentown</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1341030</v>
+      </c>
+      <c r="G133" t="n">
+        <v>7</v>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>3</v>
+      </c>
+      <c r="P133" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Dalian Zhixing</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1341031</v>
+      </c>
+      <c r="G134" t="n">
+        <v>7</v>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>2</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1341033</v>
+      </c>
+      <c r="G135" t="n">
+        <v>8</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1</v>
+      </c>
+      <c r="P135" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1341032</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5</v>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>4</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Meizhou Kejia</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1341034</v>
+      </c>
+      <c r="G137" t="n">
+        <v>9</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Liga_china_2025.xlsx
+++ b/Ligas/Liga_china_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DF989E-E9F7-4418-8296-BFB44DC9A85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E238C8-0C98-4FFB-997C-D8E173C77971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="80">
   <si>
     <t>Fecha</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>Goles 2T Visita</t>
-  </si>
-  <si>
-    <t>Posesión Local (%)</t>
-  </si>
-  <si>
-    <t>Posesión Visita (%)</t>
   </si>
   <si>
     <t>Resultado</t>
@@ -254,6 +248,18 @@
   </si>
   <si>
     <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>2025-07-26</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>Posesión Local ()</t>
+  </si>
+  <si>
+    <t>Posesión Visita ()</t>
   </si>
 </sst>
 </file>
@@ -616,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S137"/>
+  <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="Q138" sqref="Q138"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="Q127" sqref="Q1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,24 +680,24 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -739,18 +745,18 @@
         <v>42</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -798,18 +804,18 @@
         <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -857,18 +863,18 @@
         <v>68</v>
       </c>
       <c r="S4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -916,18 +922,18 @@
         <v>29</v>
       </c>
       <c r="S5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -975,18 +981,18 @@
         <v>46</v>
       </c>
       <c r="S6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1034,18 +1040,18 @@
         <v>43</v>
       </c>
       <c r="S7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1093,18 +1099,18 @@
         <v>53</v>
       </c>
       <c r="S8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1152,18 +1158,18 @@
         <v>44</v>
       </c>
       <c r="S9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1211,18 +1217,18 @@
         <v>39</v>
       </c>
       <c r="S10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1270,18 +1276,18 @@
         <v>44</v>
       </c>
       <c r="S11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1329,18 +1335,18 @@
         <v>42</v>
       </c>
       <c r="S12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1388,18 +1394,18 @@
         <v>64</v>
       </c>
       <c r="S13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1447,18 +1453,18 @@
         <v>52</v>
       </c>
       <c r="S14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1506,18 +1512,18 @@
         <v>57</v>
       </c>
       <c r="S15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1565,18 +1571,18 @@
         <v>41</v>
       </c>
       <c r="S16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1624,18 +1630,18 @@
         <v>62</v>
       </c>
       <c r="S17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1683,18 +1689,18 @@
         <v>69</v>
       </c>
       <c r="S18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1742,18 +1748,18 @@
         <v>42</v>
       </c>
       <c r="S19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1801,18 +1807,18 @@
         <v>37</v>
       </c>
       <c r="S20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1860,18 +1866,18 @@
         <v>32</v>
       </c>
       <c r="S21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1919,18 +1925,18 @@
         <v>51</v>
       </c>
       <c r="S22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1978,18 +1984,18 @@
         <v>61</v>
       </c>
       <c r="S23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
         <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2037,18 +2043,18 @@
         <v>67</v>
       </c>
       <c r="S24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2096,18 +2102,18 @@
         <v>50</v>
       </c>
       <c r="S25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2155,18 +2161,18 @@
         <v>54</v>
       </c>
       <c r="S26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -2214,18 +2220,18 @@
         <v>45</v>
       </c>
       <c r="S27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2273,18 +2279,18 @@
         <v>45</v>
       </c>
       <c r="S28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
         <v>23</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2332,18 +2338,18 @@
         <v>30</v>
       </c>
       <c r="S29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2391,18 +2397,18 @@
         <v>46</v>
       </c>
       <c r="S30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2450,18 +2456,18 @@
         <v>67</v>
       </c>
       <c r="S31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2509,18 +2515,18 @@
         <v>52</v>
       </c>
       <c r="S32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2568,18 +2574,18 @@
         <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2627,18 +2633,18 @@
         <v>45</v>
       </c>
       <c r="S34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2686,18 +2692,18 @@
         <v>54</v>
       </c>
       <c r="S35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2745,18 +2751,18 @@
         <v>43</v>
       </c>
       <c r="S36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2804,18 +2810,18 @@
         <v>43</v>
       </c>
       <c r="S37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2863,18 +2869,18 @@
         <v>32</v>
       </c>
       <c r="S38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2922,18 +2928,18 @@
         <v>41</v>
       </c>
       <c r="S39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2981,18 +2987,18 @@
         <v>53</v>
       </c>
       <c r="S40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3040,18 +3046,18 @@
         <v>43</v>
       </c>
       <c r="S41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -3099,18 +3105,18 @@
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3158,18 +3164,18 @@
         <v>31</v>
       </c>
       <c r="S43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3217,18 +3223,18 @@
         <v>33</v>
       </c>
       <c r="S44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3276,18 +3282,18 @@
         <v>62</v>
       </c>
       <c r="S45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -3335,18 +3341,18 @@
         <v>56</v>
       </c>
       <c r="S46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -3394,18 +3400,18 @@
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3453,18 +3459,18 @@
         <v>46</v>
       </c>
       <c r="S48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -3512,18 +3518,18 @@
         <v>66</v>
       </c>
       <c r="S49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3571,18 +3577,18 @@
         <v>70</v>
       </c>
       <c r="S50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3630,18 +3636,18 @@
         <v>67</v>
       </c>
       <c r="S51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3689,18 +3695,18 @@
         <v>40</v>
       </c>
       <c r="S52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3748,18 +3754,18 @@
         <v>48</v>
       </c>
       <c r="S53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3807,18 +3813,18 @@
         <v>38</v>
       </c>
       <c r="S54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3866,18 +3872,18 @@
         <v>40</v>
       </c>
       <c r="S55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3925,18 +3931,18 @@
         <v>46</v>
       </c>
       <c r="S56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -3984,18 +3990,18 @@
         <v>27</v>
       </c>
       <c r="S57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -4043,18 +4049,18 @@
         <v>58</v>
       </c>
       <c r="S58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -4102,18 +4108,18 @@
         <v>46</v>
       </c>
       <c r="S59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -4161,18 +4167,18 @@
         <v>63</v>
       </c>
       <c r="S60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -4220,18 +4226,18 @@
         <v>36</v>
       </c>
       <c r="S61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -4279,18 +4285,18 @@
         <v>34</v>
       </c>
       <c r="S62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -4338,18 +4344,18 @@
         <v>49</v>
       </c>
       <c r="S63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4397,18 +4403,18 @@
         <v>37</v>
       </c>
       <c r="S64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -4456,18 +4462,18 @@
         <v>53</v>
       </c>
       <c r="S65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4515,18 +4521,18 @@
         <v>62</v>
       </c>
       <c r="S66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -4574,18 +4580,18 @@
         <v>35</v>
       </c>
       <c r="S67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4633,18 +4639,18 @@
         <v>44</v>
       </c>
       <c r="S68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4692,18 +4698,18 @@
         <v>46</v>
       </c>
       <c r="S69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -4751,18 +4757,18 @@
         <v>42</v>
       </c>
       <c r="S70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -4810,18 +4816,18 @@
         <v>54</v>
       </c>
       <c r="S71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -4869,18 +4875,18 @@
         <v>47</v>
       </c>
       <c r="S72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -4928,18 +4934,18 @@
         <v>54</v>
       </c>
       <c r="S73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4987,18 +4993,18 @@
         <v>40</v>
       </c>
       <c r="S74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -5046,18 +5052,18 @@
         <v>45</v>
       </c>
       <c r="S75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -5105,18 +5111,18 @@
         <v>41</v>
       </c>
       <c r="S76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -5164,18 +5170,18 @@
         <v>36</v>
       </c>
       <c r="S77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -5223,18 +5229,18 @@
         <v>59</v>
       </c>
       <c r="S78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -5282,18 +5288,18 @@
         <v>52</v>
       </c>
       <c r="S79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -5341,18 +5347,18 @@
         <v>70</v>
       </c>
       <c r="S80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -5400,18 +5406,18 @@
         <v>50</v>
       </c>
       <c r="S81" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -5459,18 +5465,18 @@
         <v>60</v>
       </c>
       <c r="S82" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -5518,18 +5524,18 @@
         <v>42</v>
       </c>
       <c r="S83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -5577,18 +5583,18 @@
         <v>46</v>
       </c>
       <c r="S84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -5636,18 +5642,18 @@
         <v>58</v>
       </c>
       <c r="S85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5695,18 +5701,18 @@
         <v>50</v>
       </c>
       <c r="S86" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
         <v>37</v>
-      </c>
-      <c r="C87" t="s">
-        <v>39</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -5754,18 +5760,18 @@
         <v>40</v>
       </c>
       <c r="S87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -5813,18 +5819,18 @@
         <v>36</v>
       </c>
       <c r="S88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -5872,18 +5878,18 @@
         <v>43</v>
       </c>
       <c r="S89" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" t="s">
         <v>32</v>
-      </c>
-      <c r="C90" t="s">
-        <v>34</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -5931,18 +5937,18 @@
         <v>53</v>
       </c>
       <c r="S90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -5990,18 +5996,18 @@
         <v>52</v>
       </c>
       <c r="S91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -6049,18 +6055,18 @@
         <v>23</v>
       </c>
       <c r="S92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -6108,18 +6114,18 @@
         <v>64</v>
       </c>
       <c r="S93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -6167,18 +6173,18 @@
         <v>32</v>
       </c>
       <c r="S94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -6226,18 +6232,18 @@
         <v>35</v>
       </c>
       <c r="S95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -6285,18 +6291,18 @@
         <v>55</v>
       </c>
       <c r="S96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -6344,18 +6350,18 @@
         <v>57</v>
       </c>
       <c r="S97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -6403,18 +6409,18 @@
         <v>54</v>
       </c>
       <c r="S98" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -6462,18 +6468,18 @@
         <v>49</v>
       </c>
       <c r="S99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -6521,18 +6527,18 @@
         <v>67</v>
       </c>
       <c r="S100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -6580,18 +6586,18 @@
         <v>40</v>
       </c>
       <c r="S101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -6639,18 +6645,18 @@
         <v>39</v>
       </c>
       <c r="S102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -6698,18 +6704,18 @@
         <v>49</v>
       </c>
       <c r="S103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -6757,18 +6763,18 @@
         <v>58</v>
       </c>
       <c r="S104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -6816,18 +6822,18 @@
         <v>58</v>
       </c>
       <c r="S105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -6875,18 +6881,18 @@
         <v>31</v>
       </c>
       <c r="S106" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -6934,18 +6940,18 @@
         <v>47</v>
       </c>
       <c r="S107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -6993,18 +6999,18 @@
         <v>49</v>
       </c>
       <c r="S108" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -7052,18 +7058,18 @@
         <v>56</v>
       </c>
       <c r="S109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -7111,18 +7117,18 @@
         <v>45</v>
       </c>
       <c r="S110" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -7170,18 +7176,18 @@
         <v>29</v>
       </c>
       <c r="S111" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -7229,18 +7235,18 @@
         <v>50</v>
       </c>
       <c r="S112" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -7288,18 +7294,18 @@
         <v>42</v>
       </c>
       <c r="S113" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -7347,18 +7353,18 @@
         <v>44</v>
       </c>
       <c r="S114" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -7406,18 +7412,18 @@
         <v>50</v>
       </c>
       <c r="S115" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -7465,18 +7471,18 @@
         <v>56</v>
       </c>
       <c r="S116" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -7524,18 +7530,18 @@
         <v>43</v>
       </c>
       <c r="S117" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -7583,18 +7589,18 @@
         <v>55</v>
       </c>
       <c r="S118" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -7642,18 +7648,18 @@
         <v>42</v>
       </c>
       <c r="S119" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -7701,18 +7707,18 @@
         <v>35</v>
       </c>
       <c r="S120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -7760,18 +7766,18 @@
         <v>65</v>
       </c>
       <c r="S121" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -7819,18 +7825,18 @@
         <v>50</v>
       </c>
       <c r="S122" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -7878,18 +7884,18 @@
         <v>59</v>
       </c>
       <c r="S123" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -7937,18 +7943,18 @@
         <v>37</v>
       </c>
       <c r="S124" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -7996,18 +8002,18 @@
         <v>63</v>
       </c>
       <c r="S125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -8055,18 +8061,18 @@
         <v>31</v>
       </c>
       <c r="S126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B127" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -8114,18 +8120,18 @@
         <v>27</v>
       </c>
       <c r="S127" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -8173,18 +8179,18 @@
         <v>57</v>
       </c>
       <c r="S128" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -8232,18 +8238,18 @@
         <v>72</v>
       </c>
       <c r="S129" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -8291,18 +8297,18 @@
         <v>61</v>
       </c>
       <c r="S130" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -8350,18 +8356,18 @@
         <v>50</v>
       </c>
       <c r="S131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -8409,18 +8415,18 @@
         <v>63</v>
       </c>
       <c r="S132" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -8468,18 +8474,18 @@
         <v>46</v>
       </c>
       <c r="S133" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -8527,18 +8533,18 @@
         <v>58</v>
       </c>
       <c r="S134" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -8586,18 +8592,18 @@
         <v>28</v>
       </c>
       <c r="S135" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D136">
         <v>4</v>
@@ -8645,18 +8651,18 @@
         <v>54</v>
       </c>
       <c r="S136" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -8704,7 +8710,479 @@
         <v>49</v>
       </c>
       <c r="S137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>76</v>
+      </c>
+      <c r="B138" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" t="s">
+        <v>35</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>1341035</v>
+      </c>
+      <c r="G138">
+        <v>6</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>2</v>
+      </c>
+      <c r="P138">
+        <v>2</v>
+      </c>
+      <c r="Q138">
+        <v>66</v>
+      </c>
+      <c r="R138">
+        <v>34</v>
+      </c>
+      <c r="S138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>1341036</v>
+      </c>
+      <c r="G139">
+        <v>4</v>
+      </c>
+      <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>2</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>35</v>
+      </c>
+      <c r="R139">
+        <v>65</v>
+      </c>
+      <c r="S139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1341037</v>
+      </c>
+      <c r="G140">
+        <v>4</v>
+      </c>
+      <c r="H140">
+        <v>6</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>3</v>
+      </c>
+      <c r="P140">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>45</v>
+      </c>
+      <c r="R140">
+        <v>55</v>
+      </c>
+      <c r="S140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>77</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>1341039</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141">
+        <v>2</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>2</v>
+      </c>
+      <c r="Q141">
+        <v>58</v>
+      </c>
+      <c r="R141">
+        <v>42</v>
+      </c>
+      <c r="S141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>1341038</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>6</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>2</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>44</v>
+      </c>
+      <c r="R142">
+        <v>56</v>
+      </c>
+      <c r="S142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>77</v>
+      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" t="s">
         <v>31</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>1341041</v>
+      </c>
+      <c r="G143">
+        <v>7</v>
+      </c>
+      <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>3</v>
+      </c>
+      <c r="P143">
+        <v>2</v>
+      </c>
+      <c r="Q143">
+        <v>47</v>
+      </c>
+      <c r="R143">
+        <v>53</v>
+      </c>
+      <c r="S143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>77</v>
+      </c>
+      <c r="B144" t="s">
+        <v>32</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>1341040</v>
+      </c>
+      <c r="G144">
+        <v>7</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>3</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>3</v>
+      </c>
+      <c r="P144">
+        <v>2</v>
+      </c>
+      <c r="Q144">
+        <v>55</v>
+      </c>
+      <c r="R144">
+        <v>45</v>
+      </c>
+      <c r="S144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>77</v>
+      </c>
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>1341042</v>
+      </c>
+      <c r="G145">
+        <v>9</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>3</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>70</v>
+      </c>
+      <c r="R145">
+        <v>30</v>
+      </c>
+      <c r="S145" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Ligas/Liga_china_2025.xlsx
+++ b/Ligas/Liga_china_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U153"/>
+  <dimension ref="A1:AA163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,36 @@
           <t>Posesión Visita ().1</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local ().2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita ().2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local (%)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita (%)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>fuente_tiempos</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>estado_datos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +638,12 @@
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -677,6 +713,12 @@
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -746,6 +788,12 @@
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -815,6 +863,12 @@
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -884,6 +938,12 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -953,6 +1013,12 @@
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1022,6 +1088,12 @@
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1091,6 +1163,12 @@
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1160,6 +1238,12 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,6 +1313,12 @@
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1298,6 +1388,12 @@
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1367,6 +1463,12 @@
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1436,6 +1538,12 @@
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1505,6 +1613,12 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1574,6 +1688,12 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1643,6 +1763,12 @@
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1712,6 +1838,12 @@
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1781,6 +1913,12 @@
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1850,6 +1988,12 @@
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1919,6 +2063,12 @@
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1988,6 +2138,12 @@
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2057,6 +2213,12 @@
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2126,6 +2288,12 @@
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2195,6 +2363,12 @@
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2264,6 +2438,12 @@
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2333,6 +2513,12 @@
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2402,6 +2588,12 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2471,6 +2663,12 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2540,6 +2738,12 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2609,6 +2813,12 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2678,6 +2888,12 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2747,6 +2963,12 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2816,6 +3038,12 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2885,6 +3113,12 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2954,6 +3188,12 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3023,6 +3263,12 @@
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3092,6 +3338,12 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3161,6 +3413,12 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3230,6 +3488,12 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3299,6 +3563,12 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3368,6 +3638,12 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3437,6 +3713,12 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3506,6 +3788,12 @@
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3575,6 +3863,12 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3644,6 +3938,12 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3713,6 +4013,12 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3782,6 +4088,12 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3851,6 +4163,12 @@
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3920,6 +4238,12 @@
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3989,6 +4313,12 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4058,6 +4388,12 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4127,6 +4463,12 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4196,6 +4538,12 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4265,6 +4613,12 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4334,6 +4688,12 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4403,6 +4763,12 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4472,6 +4838,12 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4541,6 +4913,12 @@
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4610,6 +4988,12 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4679,6 +5063,12 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4748,6 +5138,12 @@
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4817,6 +5213,12 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4886,6 +5288,12 @@
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4955,6 +5363,12 @@
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5024,6 +5438,12 @@
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5093,6 +5513,12 @@
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5162,6 +5588,12 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5231,6 +5663,12 @@
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5300,6 +5738,12 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5369,6 +5813,12 @@
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5438,6 +5888,12 @@
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5507,6 +5963,12 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5576,6 +6038,12 @@
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5645,6 +6113,12 @@
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5714,6 +6188,12 @@
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5783,6 +6263,12 @@
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5852,6 +6338,12 @@
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5921,6 +6413,12 @@
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5990,6 +6488,12 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6059,6 +6563,12 @@
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6128,6 +6638,12 @@
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6197,6 +6713,12 @@
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6266,6 +6788,12 @@
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6335,6 +6863,12 @@
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6404,6 +6938,12 @@
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6473,6 +7013,12 @@
       </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6542,6 +7088,12 @@
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6611,6 +7163,12 @@
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6680,6 +7238,12 @@
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6749,6 +7313,12 @@
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6818,6 +7388,12 @@
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6887,6 +7463,12 @@
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6956,6 +7538,12 @@
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7025,6 +7613,12 @@
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7094,6 +7688,12 @@
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7163,6 +7763,12 @@
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7232,6 +7838,12 @@
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7301,6 +7913,12 @@
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7370,6 +7988,12 @@
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7439,6 +8063,12 @@
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7508,6 +8138,12 @@
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7577,6 +8213,12 @@
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7646,6 +8288,12 @@
       </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7715,6 +8363,12 @@
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7784,6 +8438,12 @@
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7853,6 +8513,12 @@
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7922,6 +8588,12 @@
       </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7991,6 +8663,12 @@
       </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8060,6 +8738,12 @@
       </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8129,6 +8813,12 @@
       </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8198,6 +8888,12 @@
       </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8267,6 +8963,12 @@
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8336,6 +9038,12 @@
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8405,6 +9113,12 @@
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8474,6 +9188,12 @@
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8543,6 +9263,12 @@
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8612,6 +9338,12 @@
       </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8681,6 +9413,12 @@
       </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8750,6 +9488,12 @@
       </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8819,6 +9563,12 @@
       </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8888,6 +9638,12 @@
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8957,6 +9713,12 @@
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9026,6 +9788,12 @@
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9095,6 +9863,12 @@
       </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9164,6 +9938,12 @@
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9233,6 +10013,12 @@
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9302,6 +10088,12 @@
       </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9371,6 +10163,12 @@
       </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9419,13 +10217,13 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O130" t="n">
         <v>1</v>
       </c>
       <c r="P130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q130" t="n">
         <v>39</v>
@@ -9440,6 +10238,12 @@
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9485,13 +10289,13 @@
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P131" t="n">
         <v>1</v>
@@ -9509,6 +10313,12 @@
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9578,6 +10388,12 @@
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9626,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O133" t="n">
         <v>3</v>
       </c>
       <c r="P133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q133" t="n">
         <v>54</v>
@@ -9647,6 +10463,12 @@
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9692,13 +10514,13 @@
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P134" t="n">
         <v>0</v>
@@ -9716,6 +10538,12 @@
       </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9761,16 +10589,16 @@
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q135" t="n">
         <v>72</v>
@@ -9785,6 +10613,12 @@
       </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9830,13 +10664,13 @@
         <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P136" t="n">
         <v>0</v>
@@ -9854,6 +10688,12 @@
       </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9923,6 +10763,12 @@
       </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9968,13 +10814,13 @@
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P138" t="n">
         <v>2</v>
@@ -9992,6 +10838,12 @@
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10037,13 +10889,13 @@
         <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P139" t="n">
         <v>0</v>
@@ -10061,6 +10913,12 @@
       </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10106,16 +10964,16 @@
         <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q140" t="n">
         <v>45</v>
@@ -10130,6 +10988,12 @@
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10178,13 +11042,13 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141" t="n">
         <v>0</v>
       </c>
       <c r="P141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q141" t="n">
         <v>58</v>
@@ -10199,6 +11063,12 @@
       </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10244,13 +11114,13 @@
         <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
       </c>
       <c r="O142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P142" t="n">
         <v>0</v>
@@ -10268,6 +11138,12 @@
       </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10313,16 +11189,16 @@
         <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q143" t="n">
         <v>47</v>
@@ -10337,6 +11213,12 @@
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10385,13 +11267,13 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O144" t="n">
         <v>3</v>
       </c>
       <c r="P144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q144" t="n">
         <v>55</v>
@@ -10406,6 +11288,12 @@
       </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10475,6 +11363,12 @@
       </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10520,16 +11414,16 @@
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q146" t="n">
         <v>38</v>
@@ -10544,6 +11438,12 @@
       </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10589,16 +11489,16 @@
         <v>1</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q147" t="n">
         <v>60</v>
@@ -10613,6 +11513,12 @@
       </c>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10658,16 +11564,16 @@
         <v>1</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q148" t="n">
         <v>61</v>
@@ -10682,6 +11588,12 @@
       </c>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10730,13 +11642,13 @@
         <v>0</v>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O149" t="n">
         <v>2</v>
       </c>
       <c r="P149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q149" t="n">
         <v>44</v>
@@ -10751,6 +11663,12 @@
       </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10796,13 +11714,13 @@
         <v>1</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
       </c>
       <c r="O150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P150" t="n">
         <v>0</v>
@@ -10820,6 +11738,12 @@
       </c>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10865,16 +11789,16 @@
         <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q151" t="n">
         <v>72</v>
@@ -10889,6 +11813,12 @@
       </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10958,6 +11888,12 @@
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11006,13 +11942,13 @@
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O153" t="n">
         <v>2</v>
       </c>
       <c r="P153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q153" t="n">
         <v>48</v>
@@ -11027,6 +11963,778 @@
       </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Dalian Zhixing</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Chengdu Better City</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1341051</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3</v>
+      </c>
+      <c r="J154" t="n">
+        <v>6</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>53</v>
+      </c>
+      <c r="R154" t="n">
+        <v>47</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1341052</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>3</v>
+      </c>
+      <c r="P155" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>57</v>
+      </c>
+      <c r="R155" t="n">
+        <v>43</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1341053</v>
+      </c>
+      <c r="G156" t="n">
+        <v>6</v>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1</v>
+      </c>
+      <c r="P156" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>60</v>
+      </c>
+      <c r="R156" t="n">
+        <v>40</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SHANGHAI SIPG</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1341054</v>
+      </c>
+      <c r="G157" t="n">
+        <v>9</v>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4</v>
+      </c>
+      <c r="J157" t="n">
+        <v>6</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1</v>
+      </c>
+      <c r="P157" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>54</v>
+      </c>
+      <c r="R157" t="n">
+        <v>46</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1341055</v>
+      </c>
+      <c r="G158" t="n">
+        <v>8</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="n">
+        <v>3</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>60</v>
+      </c>
+      <c r="R158" t="n">
+        <v>40</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Qingdao Youth Island</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1341056</v>
+      </c>
+      <c r="G159" t="n">
+        <v>5</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>48</v>
+      </c>
+      <c r="R159" t="n">
+        <v>52</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Hangzhou Greentown</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1341057</v>
+      </c>
+      <c r="G160" t="n">
+        <v>5</v>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1</v>
+      </c>
+      <c r="P160" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>35</v>
+      </c>
+      <c r="R160" t="n">
+        <v>65</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Meizhou Kejia</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1341058</v>
+      </c>
+      <c r="G161" t="n">
+        <v>3</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1</v>
+      </c>
+      <c r="P161" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>68</v>
+      </c>
+      <c r="R161" t="n">
+        <v>32</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>SHANGHAI SIPG</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1341059</v>
+      </c>
+      <c r="G162" t="n">
+        <v>4</v>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>3</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1</v>
+      </c>
+      <c r="P162" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="AA162" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1341060</v>
+      </c>
+      <c r="G163" t="n">
+        <v>7</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1</v>
+      </c>
+      <c r="P163" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="AA163" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
